--- a/conseil_federal_liste_information.xlsx
+++ b/conseil_federal_liste_information.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LZender\Documents\Travail\unine\histoire\humanités numériques I\astronomers\dossier de travail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LZender\Documents\Travail\unine\histoire\humanités numériques I\astronomers\travail_personnel\conseil_federal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61AD037-782A-4B9E-80C1-0673F97AEE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECB3F6F-B42B-4DCB-8C69-CA6CC633EFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="6" xr2:uid="{1594B766-C85A-42EA-85B5-50A7375BC61C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1594B766-C85A-42EA-85B5-50A7375BC61C}"/>
   </bookViews>
   <sheets>
     <sheet name="personne" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E70F10-4C95-4FEC-83B6-CB0A7BB06DFC}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1416,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B529276-4519-4039-B392-94191F96655A}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/conseil_federal_liste_information.xlsx
+++ b/conseil_federal_liste_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LZender\Documents\Travail\unine\histoire\humanités numériques I\astronomers\travail_personnel\conseil_federal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECB3F6F-B42B-4DCB-8C69-CA6CC633EFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA82B9FF-70EA-4FB7-900C-DA22D7133F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1594B766-C85A-42EA-85B5-50A7375BC61C}"/>
+    <workbookView xWindow="-36" yWindow="0" windowWidth="13536" windowHeight="12336" firstSheet="7" activeTab="7" xr2:uid="{1594B766-C85A-42EA-85B5-50A7375BC61C}"/>
   </bookViews>
   <sheets>
     <sheet name="personne" sheetId="1" r:id="rId1"/>
@@ -354,9 +354,6 @@
     <t>faoug</t>
   </si>
   <si>
-    <t>grand conseil</t>
-  </si>
-  <si>
     <t>1828-1831</t>
   </si>
   <si>
@@ -424,6 +421,9 @@
   </si>
   <si>
     <t>latitude</t>
+  </si>
+  <si>
+    <t>president</t>
   </si>
 </sst>
 </file>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E70F10-4C95-4FEC-83B6-CB0A7BB06DFC}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,22 +914,22 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
         <v>112</v>
-      </c>
-      <c r="B7" t="s">
-        <v>113</v>
       </c>
       <c r="C7" s="1">
         <v>3265</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" t="s">
         <v>117</v>
-      </c>
-      <c r="F7" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +982,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1011,10 +1011,10 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
         <v>125</v>
-      </c>
-      <c r="D1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1059,10 +1059,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -1233,15 +1233,16 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
     <col min="7" max="7" width="27.88671875" customWidth="1"/>
     <col min="8" max="8" width="25.33203125" customWidth="1"/>
   </cols>
@@ -1257,16 +1258,16 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1280,16 +1281,16 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1303,10 +1304,10 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>58</v>
@@ -1326,10 +1327,10 @@
         <v>70</v>
       </c>
       <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>58</v>
@@ -1349,30 +1350,30 @@
         <v>87</v>
       </c>
       <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
         <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
         <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
       </c>
       <c r="E6" t="s">
         <v>105</v>
@@ -1381,7 +1382,7 @@
         <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1392,19 +1393,19 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
         <v>120</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>121</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1417,12 +1418,13 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
     <col min="5" max="5" width="23.21875" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
   </cols>
@@ -1511,16 +1513,16 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
         <v>108</v>
       </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="F6">
         <v>1845</v>
@@ -1540,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6D4CFA-BDE8-4AB6-A171-CD75EC5CF82A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1608,10 +1610,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
         <v>110</v>
-      </c>
-      <c r="B6" t="s">
-        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1619,13 +1621,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
         <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
